--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1180.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1180.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.114430440072956</v>
+        <v>1.167731165885925</v>
       </c>
       <c r="B1">
-        <v>1.914855360424199</v>
+        <v>2.43769383430481</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.856041558505775</v>
+        <v>2.368287563323975</v>
       </c>
       <c r="E1">
-        <v>1.109945523289649</v>
+        <v>1.234218716621399</v>
       </c>
     </row>
   </sheetData>
